--- a/templates/AutomationOrg/CRUD-Sydefault.xlsx
+++ b/templates/AutomationOrg/CRUD-Sydefault.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkakade\Provar\Workspace\System Setup\templates\AutomationOrg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Provar_New\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D3F2E9-1B12-42DF-881E-A4DF926451BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A734FC68-217E-4AF1-B5F5-2BF6F6CEC14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="3396" windowWidth="15912" windowHeight="8964" xr2:uid="{4D6A5E29-BBE9-4EC0-8D21-EF436AFF7153}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="3396" windowWidth="15912" windowHeight="8964" activeTab="1" xr2:uid="{4D6A5E29-BBE9-4EC0-8D21-EF436AFF7153}"/>
   </bookViews>
   <sheets>
     <sheet name="Edit_SYDEFAULT" sheetId="1" r:id="rId1"/>
+    <sheet name="Edit_SYDEFAULT1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
   <si>
     <t>Override Form Tool - Sales Order Ack.</t>
   </si>
@@ -71,6 +72,9 @@
   </si>
   <si>
     <t>PDF</t>
+  </si>
+  <si>
+    <t>No Override</t>
   </si>
 </sst>
 </file>
@@ -424,7 +428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FCFD09-7435-4CFC-B1EC-9086D6743F74}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -507,4 +513,83 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF315D31-D3F5-4436-B378-FFD4A4142907}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>